--- a/crime-patern/crime_data/crime2019.xlsx
+++ b/crime-patern/crime_data/crime2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\crime-pattern-analysis\crime-patern\static\assets\crime_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\crime-pattern-analysis\crime-patern\crime_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CAD44-9E5D-4953-A3D5-3648E610616E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6B2C2-7EBC-4E1E-9E81-37846E15F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2772666A-A89A-451B-9530-4943B6FB84B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2772666A-A89A-451B-9530-4943B6FB84B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -457,69 +466,32 @@
     <t>Murder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Child Desertion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Unnatural Offence</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Child Stealing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Defilement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Human Trafficking</t>
-    </r>
-  </si>
-  <si>
     <t>Rape</t>
+  </si>
+  <si>
+    <t>Child Stealing</t>
+  </si>
+  <si>
+    <t>Breaking</t>
+  </si>
+  <si>
+    <t>Human Trafficking</t>
+  </si>
+  <si>
+    <t>Unnatural Offence</t>
+  </si>
+  <si>
+    <t>Defilement</t>
+  </si>
+  <si>
+    <t>Child Desertion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,22 +526,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -628,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -657,11 +613,35 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,54 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,118 +964,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC4B5FA-BFA2-429F-8610-34C9711D4F18}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="30"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="S1" s="24"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>42</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
+        <v>45</v>
+      </c>
+      <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="25">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9">
-        <f>SUM(B2:H2)</f>
-        <v>62</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="9">
+        <f>SUM(B2:I2)</f>
+        <v>200</v>
+      </c>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3">
         <v>22</v>
       </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="3">
+        <v>342</v>
+      </c>
+      <c r="H3" s="10">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="10">
-        <f>SUM(B3:H3)</f>
-        <v>43</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="11">
+        <f>SUM(B3:I3)</f>
+        <v>524</v>
+      </c>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
@@ -1153,117 +1084,129 @@
         <v>23</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3">
         <v>27</v>
       </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
+        <v>223</v>
+      </c>
+      <c r="H4" s="10">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3">
         <v>12</v>
       </c>
-      <c r="I4" s="10">
-        <f>SUM(B4:H4)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="J4" s="11">
+        <f>SUM(B4:I4)</f>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>18</v>
       </c>
       <c r="C5" s="3">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3">
         <v>47</v>
       </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="3">
+        <v>220</v>
+      </c>
+      <c r="H5" s="10">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3">
         <v>45</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I42" si="0">SUM(B5:H5)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J42" si="0">SUM(B5:I5)</f>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3">
+        <v>89</v>
+      </c>
+      <c r="H6" s="10">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
         <v>98</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3">
+        <v>76</v>
+      </c>
+      <c r="H7" s="10">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3">
         <v>47</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
@@ -1273,27 +1216,30 @@
         <v>36</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
         <v>26</v>
       </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="3">
+        <v>76</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6532</v>
+      </c>
+      <c r="I8" s="3">
         <v>34</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
@@ -1303,27 +1249,30 @@
         <v>19</v>
       </c>
       <c r="D9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3">
-        <v>356</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3">
+        <v>98</v>
+      </c>
+      <c r="H9" s="10">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3">
         <v>24</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
@@ -1333,27 +1282,30 @@
         <v>36</v>
       </c>
       <c r="D10" s="3">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3">
+        <v>98</v>
+      </c>
+      <c r="H10" s="10">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3">
         <v>85</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
@@ -1363,147 +1315,162 @@
         <v>27</v>
       </c>
       <c r="D11" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3">
-        <v>436</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9795</v>
+      </c>
+      <c r="H11" s="10">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3">
         <v>68</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>10128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>55</v>
       </c>
       <c r="C12" s="3">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>29</v>
       </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="3">
+        <v>120</v>
+      </c>
+      <c r="H12" s="10">
+        <v>54</v>
+      </c>
+      <c r="I12" s="3">
         <v>97</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>27</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10">
+        <v>87</v>
+      </c>
+      <c r="I13" s="3">
         <v>43</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3">
+        <v>98</v>
+      </c>
+      <c r="H14" s="10">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3">
         <v>8</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>60</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>456</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="0"/>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3">
+        <v>87</v>
+      </c>
+      <c r="H15" s="10">
+        <v>54</v>
+      </c>
+      <c r="I15" s="3">
+        <v>56</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
@@ -1513,147 +1480,162 @@
         <v>20</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>54</v>
       </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="3">
         <v>89</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="H16" s="10">
+        <v>67</v>
+      </c>
+      <c r="I16" s="3">
+        <v>54</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3">
         <v>28</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3">
+        <v>98</v>
+      </c>
+      <c r="H17" s="10">
+        <v>97</v>
+      </c>
+      <c r="I17" s="3">
         <v>54</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3">
+        <v>97</v>
+      </c>
+      <c r="H18" s="10">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3">
         <v>35</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>51</v>
       </c>
       <c r="C19" s="3">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3">
+        <v>96</v>
+      </c>
+      <c r="H19" s="10">
+        <v>45</v>
+      </c>
+      <c r="I19" s="3">
         <v>69</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3">
+        <v>95</v>
+      </c>
+      <c r="H20" s="10">
+        <v>78</v>
+      </c>
+      <c r="I20" s="3">
         <v>68</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3">
@@ -1663,27 +1645,30 @@
         <v>25</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F21" s="3">
         <v>38</v>
       </c>
-      <c r="G21" s="25">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3">
+        <v>78</v>
+      </c>
+      <c r="H21" s="10">
+        <v>54</v>
+      </c>
+      <c r="I21" s="3">
         <v>7</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
@@ -1693,27 +1678,30 @@
         <v>41</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+        <v>87</v>
+      </c>
+      <c r="G22" s="3">
+        <v>85</v>
+      </c>
+      <c r="H22" s="10">
+        <v>87</v>
+      </c>
+      <c r="I22" s="3">
         <v>67</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
@@ -1723,27 +1711,30 @@
         <v>30</v>
       </c>
       <c r="D23" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+        <v>65</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45</v>
+      </c>
+      <c r="H23" s="10">
+        <v>34</v>
+      </c>
+      <c r="I23" s="3">
         <v>98</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -1753,117 +1744,129 @@
         <v>15</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+        <v>54</v>
+      </c>
+      <c r="G24" s="3">
+        <v>76</v>
+      </c>
+      <c r="H24" s="10">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3">
         <v>455</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>52</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3">
+        <v>87</v>
+      </c>
+      <c r="H25" s="10">
+        <v>45</v>
+      </c>
+      <c r="I25" s="3">
         <v>55</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+        <v>67</v>
+      </c>
+      <c r="G26" s="3">
+        <v>89</v>
+      </c>
+      <c r="H26" s="10">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3">
         <v>87</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3">
-        <v>15</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45</v>
+      </c>
+      <c r="H27" s="10">
+        <v>54</v>
+      </c>
+      <c r="I27" s="3">
         <v>567</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="0"/>
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="J27" s="11">
+        <f t="shared" si="0"/>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -1873,27 +1876,30 @@
         <v>47</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
+        <v>98</v>
+      </c>
+      <c r="G28" s="3">
+        <v>67</v>
+      </c>
+      <c r="H28" s="10">
+        <v>78</v>
+      </c>
+      <c r="I28" s="3">
         <v>77</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="J28" s="11">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
@@ -1903,414 +1909,465 @@
         <v>21</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3">
         <v>71</v>
       </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3">
+        <v>123</v>
+      </c>
+      <c r="H29" s="10">
+        <v>73</v>
+      </c>
+      <c r="I29" s="3">
         <v>78</v>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="J29" s="11">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3">
-        <v>13</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3">
+        <v>125</v>
+      </c>
+      <c r="H30" s="10">
+        <v>35</v>
+      </c>
+      <c r="I30" s="3">
         <v>45</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="J30" s="11">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
         <v>65</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="G31" s="3">
+        <v>234</v>
+      </c>
+      <c r="H31" s="10">
+        <v>76</v>
+      </c>
+      <c r="I31" s="3">
+        <v>65</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3">
         <v>25</v>
       </c>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="10">
+        <v>34</v>
+      </c>
+      <c r="I32" s="3">
         <v>56</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="J32" s="11">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="3">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3">
+        <v>68</v>
+      </c>
+      <c r="F33" s="3">
+        <v>56</v>
+      </c>
+      <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="10">
+        <v>64</v>
+      </c>
+      <c r="I33" s="3">
         <v>66</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="J33" s="11">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="3">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3">
+        <v>76</v>
+      </c>
+      <c r="F34" s="3">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="H34" s="10">
+        <v>35</v>
+      </c>
+      <c r="I34" s="3">
         <v>3</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="J34" s="11">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="4">
-        <v>553</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4">
-        <v>470</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F35" s="5">
         <v>1221</v>
       </c>
-      <c r="G35" s="26">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="4">
+        <v>1123</v>
+      </c>
+      <c r="H35" s="12">
+        <v>75</v>
+      </c>
+      <c r="I35" s="3">
         <v>34</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="0"/>
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="J35" s="11">
+        <f t="shared" si="0"/>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="25">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
+        <v>67</v>
+      </c>
+      <c r="G36" s="3">
+        <v>345</v>
+      </c>
+      <c r="H36" s="10">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3">
         <v>55</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="J36" s="11">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
+        <v>43</v>
+      </c>
+      <c r="G37" s="3">
+        <v>322</v>
+      </c>
+      <c r="H37" s="10">
+        <v>56</v>
+      </c>
+      <c r="I37" s="3">
         <v>57</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="0"/>
+      <c r="J37" s="11">
+        <f t="shared" si="0"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <v>76</v>
+      </c>
+      <c r="F38" s="3">
+        <v>23</v>
+      </c>
+      <c r="G38" s="3">
+        <v>123</v>
+      </c>
+      <c r="H38" s="10">
+        <v>76</v>
+      </c>
+      <c r="I38" s="3">
+        <v>987</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="0"/>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>17</v>
+      </c>
+      <c r="C39" s="3">
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>46</v>
+      </c>
+      <c r="E39" s="3">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3">
+        <v>78</v>
+      </c>
+      <c r="G39" s="3">
+        <v>133</v>
+      </c>
+      <c r="H39" s="10">
+        <v>87</v>
+      </c>
+      <c r="I39" s="3">
+        <v>98</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>987</v>
-      </c>
-      <c r="I38" s="10">
-        <f t="shared" si="0"/>
-        <v>988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>98</v>
-      </c>
-      <c r="I39" s="10">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
       <c r="E40" s="3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
+        <v>66</v>
+      </c>
+      <c r="G40" s="3">
+        <v>123</v>
+      </c>
+      <c r="H40" s="10">
+        <v>54</v>
+      </c>
+      <c r="I40" s="3">
         <v>7</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="J40" s="11">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C41" s="6">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E41" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="27">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
         <v>78</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="G41" s="6">
+        <v>234</v>
+      </c>
+      <c r="H41" s="13">
+        <v>44</v>
+      </c>
+      <c r="I41" s="3">
+        <v>78</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="0"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="7">
         <v>560</v>
       </c>
       <c r="C42" s="7">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="D42" s="7">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E42" s="7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F42" s="8">
         <v>1221</v>
       </c>
-      <c r="G42" s="28">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="7">
+        <v>223</v>
+      </c>
+      <c r="H42" s="14">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3">
         <v>76</v>
       </c>
-      <c r="I42" s="10">
-        <f t="shared" si="0"/>
-        <v>2444</v>
-      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="0"/>
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
